--- a/biology/Mycologie/Penicillium_digitatum/Penicillium_digitatum.xlsx
+++ b/biology/Mycologie/Penicillium_digitatum/Penicillium_digitatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium digitatum est une espèce de champignons microscopiques du genre Penicillium.
 C'est un agent de pourriture des fruits, surtout les agrumes. Il est connu comme étant la pourriture verte des oranges et citrons et est très fréquent.
